--- a/teste.xlsx
+++ b/teste.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Codigo</t>
   </si>
@@ -56,6 +57,63 @@
   </si>
   <si>
     <t>222-1092</t>
+  </si>
+  <si>
+    <t>cadastro</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>data_nascimento</t>
+  </si>
+  <si>
+    <t>raca</t>
+  </si>
+  <si>
+    <t>especie</t>
+  </si>
+  <si>
+    <t>pp123</t>
+  </si>
+  <si>
+    <t>bruce</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>schanauzer</t>
+  </si>
+  <si>
+    <t>cachorro</t>
+  </si>
+  <si>
+    <t>pp124</t>
+  </si>
+  <si>
+    <t>miau</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>sphynx</t>
+  </si>
+  <si>
+    <t>gato</t>
+  </si>
+  <si>
+    <t>pp125</t>
+  </si>
+  <si>
+    <t>blau</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>pastor</t>
   </si>
 </sst>
 </file>
@@ -87,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,6 +155,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -106,6 +165,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -384,4 +447,139 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="17.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/teste.xlsx
+++ b/teste.xlsx
@@ -5,6 +5,8 @@
   <sheets>
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Página3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Página4" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Codigo</t>
   </si>
@@ -23,10 +25,10 @@
     <t>Estique</t>
   </si>
   <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>estoque</t>
   </si>
   <si>
     <t>p10101</t>
@@ -114,6 +116,111 @@
   </si>
   <si>
     <t>pastor</t>
+  </si>
+  <si>
+    <t>cpf_profissional</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>121234</t>
+  </si>
+  <si>
+    <t>Kian</t>
+  </si>
+  <si>
+    <t>Rua D</t>
+  </si>
+  <si>
+    <t>1111-1111</t>
+  </si>
+  <si>
+    <t>23/08/1980</t>
+  </si>
+  <si>
+    <t>121235</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Rua E</t>
+  </si>
+  <si>
+    <t>2222-2222</t>
+  </si>
+  <si>
+    <t>23/05/1989</t>
+  </si>
+  <si>
+    <t>121236</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Rua G</t>
+  </si>
+  <si>
+    <t>3333-3333</t>
+  </si>
+  <si>
+    <t>22/05/1990</t>
+  </si>
+  <si>
+    <t>121237</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Rua A</t>
+  </si>
+  <si>
+    <t>4444-4444</t>
+  </si>
+  <si>
+    <t>19/05/1987</t>
+  </si>
+  <si>
+    <t>121238</t>
+  </si>
+  <si>
+    <t>Balu</t>
+  </si>
+  <si>
+    <t>Rua B</t>
+  </si>
+  <si>
+    <t>5555-5555</t>
+  </si>
+  <si>
+    <t>13/03/1992</t>
+  </si>
+  <si>
+    <t>tipo_servico</t>
+  </si>
+  <si>
+    <t>Banho</t>
+  </si>
+  <si>
+    <t>123.09</t>
+  </si>
+  <si>
+    <t>Tosa</t>
+  </si>
+  <si>
+    <t>150.10</t>
+  </si>
+  <si>
+    <t>Veterinária</t>
+  </si>
+  <si>
+    <t>170.98</t>
   </si>
 </sst>
 </file>
@@ -169,6 +276,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -444,6 +559,160 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -582,4 +851,277 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.43"/>
+    <col customWidth="1" min="5" max="5" width="20.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>